--- a/data/trans_dic/P70A02_2007-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P70A02_2007-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,32%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,58%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>34,59; 51,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>12,01; 27,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>27,71; 40,02</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,4%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>72,12; 82,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,48</t>
+          <t>51,22; 68,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>67,35; 76,43</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,17%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,33%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,18%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,37</t>
+          <t>48,95; 65,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>33,4; 56,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>46,32; 59,81</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,93%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,94%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,99</t>
+          <t>37,82; 52,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>20,8; 37,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>32,83; 44,56</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,01%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,01%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,34%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,73</t>
+          <t>75,32; 90,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>45,13; 74,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,22</t>
+          <t>68,9; 82,69</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,33%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,53</t>
+          <t>50,19; 67,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>45,3; 67,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>51,5; 65,57</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,51%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,65%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,65%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>67,39; 77,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,29</t>
+          <t>53,26; 69,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>64,37; 73,5</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,13%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,35%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,32%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>76,25; 83,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>55,51; 69,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>70,95; 77,67</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,2%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,04%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,25%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>65,81; 70,25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>47,57; 54,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>60,39; 64,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70A02_2007-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P70A02_2007-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>34,59; 51,23</t>
+          <t>35,78; 52,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,01; 27,17</t>
+          <t>12,03; 27,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,71; 40,02</t>
+          <t>27,83; 39,93</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>72,12; 82,86</t>
+          <t>72,35; 82,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,22; 68,49</t>
+          <t>51,83; 68,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>67,35; 76,43</t>
+          <t>67,52; 76,56</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>48,95; 65,17</t>
+          <t>49,0; 65,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,4; 56,54</t>
+          <t>34,43; 56,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>46,32; 59,81</t>
+          <t>46,92; 59,95</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,82; 52,55</t>
+          <t>37,71; 52,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,8; 37,36</t>
+          <t>21,23; 36,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,83; 44,56</t>
+          <t>33,65; 44,42</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>75,32; 90,29</t>
+          <t>75,85; 90,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45,13; 74,04</t>
+          <t>43,1; 72,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>68,9; 82,69</t>
+          <t>68,34; 82,41</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>50,19; 67,56</t>
+          <t>50,19; 67,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,3; 67,68</t>
+          <t>44,72; 68,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>51,5; 65,57</t>
+          <t>50,88; 65,22</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>67,39; 77,62</t>
+          <t>66,57; 77,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>53,26; 69,67</t>
+          <t>53,86; 69,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>64,37; 73,5</t>
+          <t>63,76; 72,89</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>76,25; 83,67</t>
+          <t>75,92; 83,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>55,51; 69,56</t>
+          <t>55,31; 68,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>70,95; 77,67</t>
+          <t>71,05; 77,74</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>65,81; 70,25</t>
+          <t>65,97; 70,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>47,57; 54,27</t>
+          <t>47,67; 54,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>60,39; 64,09</t>
+          <t>60,27; 64,16</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han impartido formación sobre prevención de riesgos laborales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>66128</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>19923</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>86052</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>54622; 79921</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12461; 28261</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>71304; 102325</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>210059</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>79841</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>289899</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>194919; 223545</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>67907; 89780</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>270366; 306575</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>83743</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>33804</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>117547</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>71774; 96084</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>25676; 42209</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>103717; 132517</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>88601</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>32745</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>121346</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>74367; 102740</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>24298; 42326</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>104852; 138415</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>93909</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>29172</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>123082</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>84786; 100977</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>21305; 35998</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>110183; 132864</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>77252</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>42379</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>119632</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>65123; 86932</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>33696; 51278</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>104345; 133766</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>208081</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>97647</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>305727</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>191015; 223074</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>85307; 109448</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>283955; 324601</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>368510</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>139083</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>507594</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>349153; 385460</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>123374; 152822</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>485251; 530914</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1143</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1604</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1196285</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>474594</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1670879</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1157267; 1234534</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>443244; 506869</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1617522; 1721947</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>